--- a/ListOfAddressPerRoute.xlsx
+++ b/ListOfAddressPerRoute.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Carrier Route</t>
   </si>
@@ -20,7 +20,16 @@
     <t>Count</t>
   </si>
   <si>
+    <t>48108-C024</t>
+  </si>
+  <si>
+    <t>48105-R007</t>
+  </si>
+  <si>
     <t>48108-R029</t>
+  </si>
+  <si>
+    <t>48108-R005</t>
   </si>
   <si>
     <t>48108-C090</t>
@@ -74,7 +83,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -93,7 +102,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -101,7 +110,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -109,7 +118,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -117,7 +126,31 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
         <v>2.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
